--- a/biology/Médecine/Classification_de_Masaoka/Classification_de_Masaoka.xlsx
+++ b/biology/Médecine/Classification_de_Masaoka/Classification_de_Masaoka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de Masaoka est une classification clinique des thymomes, établie en 1981 par Akira Masaoka et modifiée en 1994 par Kenji Koga.
-Il s'agit d'une stadification davantage clinique que microscopique basée sur les éléments suivants[1] :
+Il s'agit d'une stadification davantage clinique que microscopique basée sur les éléments suivants :
 stade I : tumeur macroscopiquement complètement encapsulée, sans envahissement capsulaire microscopie
 stade II : envahissement macroscopique du tissu adipeux environnant ou de la plèvre médiastinale, ou envahissement capsulaire microscopique
 stade III : envahissement macroscopique des organes avoisinants (péricarde, poumon, gros vaisseaux)
 stade IV :
  stade IVa : dissémination pleurale ou péricardique
 stade IVb : métastases ganglionnaires ou à distance
-Il s'agit de la première classification des thymomes pour laquelle le pronostic était corrélé au stade[2].
-La classification de Masaoka a été modifiée en 1994 et est devenue la classification de Masaoka-Koga[3], qui est la plus utilisée aujourd'hui dans le monde[4] :
+Il s'agit de la première classification des thymomes pour laquelle le pronostic était corrélé au stade.
+La classification de Masaoka a été modifiée en 1994 et est devenue la classification de Masaoka-Koga, qui est la plus utilisée aujourd'hui dans le monde :
 stade I : tumeur complètement encapsulée, macroscopiquement et microscopiquement
 stade II :
 stade IIa : invasion transcapsulaire microscopique
@@ -504,7 +516,7 @@
 			Stade II de Masaoka-Koga : envahissement de la graisse adjacente
 			Stade III de Masaoka-Koga : envahissement de contiguïté des organes adjacents
 			Stade IVa de Masaoka-Koga : dissémination pleurale ou péricardique
-Bien que la classification de Masaoka-Koga soit toujours considérée comme la plus adaptée, elle a été critiquée sur plusieurs points, et notamment la corrélation entre aspect clinique et aspect microscopique[2]. Tout d'abord, pour certains[5], le stade IIb mélange abusivement un envahissement microscopique avéré des organes de voisinage et un simple contact sans envahissement, le contact sans rupture étant par ailleurs difficile à identifier au plan anatomopathologique. Il existe également une ambiguïté entre le stade III et le stade IVa, notamment sur ce qui doit être considéré ou non comme une dissémination pleurale ou péricardique[6]. Enfin, la classification de Masaoka n'est pas utilisable pour les carcinomes thymiques[7],[8].
+Bien que la classification de Masaoka-Koga soit toujours considérée comme la plus adaptée, elle a été critiquée sur plusieurs points, et notamment la corrélation entre aspect clinique et aspect microscopique. Tout d'abord, pour certains, le stade IIb mélange abusivement un envahissement microscopique avéré des organes de voisinage et un simple contact sans envahissement, le contact sans rupture étant par ailleurs difficile à identifier au plan anatomopathologique. Il existe également une ambiguïté entre le stade III et le stade IVa, notamment sur ce qui doit être considéré ou non comme une dissémination pleurale ou péricardique. Enfin, la classification de Masaoka n'est pas utilisable pour les carcinomes thymiques,.
 </t>
         </is>
       </c>
